--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO254678.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO254678.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401ED1A6-CC31-49E5-B352-1D6CE1C5EBF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89097E3-E6BB-46DC-BF12-87512329829A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{08F41D9A-3D37-4EEE-B4D9-5481634F500C}"/>
   </bookViews>
@@ -25,33 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>Beverages and Catering</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Concierge Services</t>
+  </si>
+  <si>
+    <t>Waste management services</t>
+  </si>
   <si>
     <t>Professional Services</t>
   </si>
   <si>
-    <t>RON</t>
-  </si>
-  <si>
-    <t>Beverages and Catering</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>IT Support</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Concierge Services</t>
-  </si>
-  <si>
-    <t>Waste management services</t>
+    <t>Various paper supplies</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE3C18D-7ED6-4EAD-8987-1008EEFB89EE}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,232 +415,324 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>560862</v>
+        <v>398803</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1">
-        <v>42762</v>
+        <v>42783</v>
       </c>
       <c r="D1">
-        <v>234990</v>
+        <v>41183</v>
       </c>
       <c r="E1">
-        <v>46998</v>
+        <v>8236.6</v>
       </c>
       <c r="F1">
-        <v>281988</v>
+        <v>49419.6</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>916192</v>
+        <v>288008</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>42745</v>
+        <v>42771</v>
       </c>
       <c r="D2">
-        <v>49427</v>
+        <v>153924</v>
       </c>
       <c r="E2">
-        <v>9885.4</v>
+        <v>30784.799999999999</v>
       </c>
       <c r="F2">
-        <v>59312.4</v>
+        <v>184709</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>234363</v>
+        <v>941817</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42822</v>
+      </c>
+      <c r="D3">
+        <v>94735</v>
+      </c>
+      <c r="E3">
+        <v>18947</v>
+      </c>
+      <c r="F3">
+        <v>113682</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42785</v>
-      </c>
-      <c r="D3">
-        <v>251310</v>
-      </c>
-      <c r="E3">
-        <v>50262</v>
-      </c>
-      <c r="F3">
-        <v>301572</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>304091</v>
+        <v>991102</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>42820</v>
+        <v>42844</v>
       </c>
       <c r="D4">
-        <v>206027</v>
+        <v>67230</v>
       </c>
       <c r="E4">
-        <v>41205.4</v>
+        <v>13446</v>
       </c>
       <c r="F4">
-        <v>247232</v>
+        <v>80676</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>313782</v>
+        <v>916256</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>42910</v>
+        <v>42891</v>
       </c>
       <c r="D5">
-        <v>133490</v>
+        <v>267581</v>
       </c>
       <c r="E5">
-        <v>26698</v>
+        <v>53516.2</v>
       </c>
       <c r="F5">
-        <v>160188</v>
+        <v>321097</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>323166</v>
+        <v>385504</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>42931</v>
+        <v>42887</v>
       </c>
       <c r="D6">
-        <v>42577</v>
+        <v>23540</v>
       </c>
       <c r="E6">
-        <v>8515.4</v>
+        <v>4708</v>
       </c>
       <c r="F6">
-        <v>51092.4</v>
+        <v>28248</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>338432</v>
+        <v>640668</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>42950</v>
+        <v>42899</v>
       </c>
       <c r="D7">
-        <v>82481</v>
+        <v>274788</v>
       </c>
       <c r="E7">
-        <v>16496.2</v>
+        <v>54957.599999999999</v>
       </c>
       <c r="F7">
-        <v>98977.2</v>
+        <v>329746</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>471068</v>
+        <v>135076</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>43017</v>
+        <v>42927</v>
       </c>
       <c r="D8">
-        <v>84466</v>
+        <v>191435</v>
       </c>
       <c r="E8">
-        <v>16893.2</v>
+        <v>38287</v>
       </c>
       <c r="F8">
-        <v>101359</v>
+        <v>229722</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>987403</v>
+        <v>912012</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>43071</v>
+        <v>42952</v>
       </c>
       <c r="D9">
-        <v>45009</v>
+        <v>166589</v>
       </c>
       <c r="E9">
-        <v>9001.7999999999993</v>
+        <v>33317.800000000003</v>
       </c>
       <c r="F9">
-        <v>54010.8</v>
+        <v>199907</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>664248</v>
+        <v>201542</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42996</v>
+      </c>
+      <c r="D10">
+        <v>269692</v>
+      </c>
+      <c r="E10">
+        <v>53938.400000000001</v>
+      </c>
+      <c r="F10">
+        <v>323630</v>
+      </c>
+      <c r="G10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
-        <v>43079</v>
-      </c>
-      <c r="D10">
-        <v>195814</v>
-      </c>
-      <c r="E10">
-        <v>39162.800000000003</v>
-      </c>
-      <c r="F10">
-        <v>234977</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>873561</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42999</v>
+      </c>
+      <c r="D11">
+        <v>123736</v>
+      </c>
+      <c r="E11">
+        <v>24747.200000000001</v>
+      </c>
+      <c r="F11">
+        <v>148483</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>854041</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43030</v>
+      </c>
+      <c r="D12">
+        <v>78934</v>
+      </c>
+      <c r="E12">
+        <v>15786.8</v>
+      </c>
+      <c r="F12">
+        <v>94720.8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>171477</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43089</v>
+      </c>
+      <c r="D13">
+        <v>272265</v>
+      </c>
+      <c r="E13">
+        <v>54453</v>
+      </c>
+      <c r="F13">
+        <v>326718</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>231182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43088</v>
+      </c>
+      <c r="D14">
+        <v>168962</v>
+      </c>
+      <c r="E14">
+        <v>33792.400000000001</v>
+      </c>
+      <c r="F14">
+        <v>202754</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
